--- a/Team-Data/2012-13/1-21-2012-13.xlsx
+++ b/Team-Data/2012-13/1-21-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,64 +733,64 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
         <v>18</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J2" t="n">
-        <v>81</v>
+        <v>81.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="L2" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.38</v>
+        <v>0.375</v>
       </c>
       <c r="O2" t="n">
         <v>13.2</v>
       </c>
       <c r="P2" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.699</v>
+        <v>0.702</v>
       </c>
       <c r="R2" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T2" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="U2" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="V2" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="W2" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X2" t="n">
         <v>4.9</v>
@@ -732,19 +799,19 @@
         <v>4.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="AA2" t="n">
         <v>18.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -762,19 +829,19 @@
         <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM2" t="n">
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
@@ -792,19 +859,19 @@
         <v>16</v>
       </c>
       <c r="AT2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AU2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AW2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
         <v>10</v>
@@ -819,7 +886,7 @@
         <v>17</v>
       </c>
       <c r="BC2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-1</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
         <v>16</v>
@@ -935,7 +1002,7 @@
         <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
         <v>4</v>
@@ -956,7 +1023,7 @@
         <v>28</v>
       </c>
       <c r="AN3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO3" t="n">
         <v>24</v>
@@ -971,7 +1038,7 @@
         <v>28</v>
       </c>
       <c r="AS3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
@@ -989,13 +1056,13 @@
         <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
       </c>
       <c r="BA3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB3" t="n">
         <v>23</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -1030,64 +1097,64 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="n">
         <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J4" t="n">
-        <v>79.5</v>
+        <v>79.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L4" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M4" t="n">
         <v>21.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.347</v>
+        <v>0.343</v>
       </c>
       <c r="O4" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P4" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.75</v>
+        <v>0.752</v>
       </c>
       <c r="R4" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S4" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="T4" t="n">
-        <v>42.2</v>
+        <v>42</v>
       </c>
       <c r="U4" t="n">
         <v>20.2</v>
       </c>
       <c r="V4" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W4" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X4" t="n">
         <v>4.7</v>
@@ -1099,19 +1166,19 @@
         <v>18.7</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC4" t="n">
         <v>2</v>
       </c>
       <c r="AD4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE4" t="n">
         <v>9</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>7</v>
       </c>
       <c r="AF4" t="n">
         <v>8</v>
@@ -1120,7 +1187,7 @@
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
         <v>26</v>
@@ -1132,7 +1199,7 @@
         <v>18</v>
       </c>
       <c r="AL4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AM4" t="n">
         <v>9</v>
@@ -1153,10 +1220,10 @@
         <v>8</v>
       </c>
       <c r="AS4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AT4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU4" t="n">
         <v>25</v>
@@ -1171,7 +1238,7 @@
         <v>22</v>
       </c>
       <c r="AY4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ4" t="n">
         <v>4</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -1212,22 +1279,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" t="n">
-        <v>0.244</v>
+        <v>0.25</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="J5" t="n">
         <v>82.2</v>
@@ -1242,7 +1309,7 @@
         <v>16.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O5" t="n">
         <v>19.7</v>
@@ -1251,58 +1318,58 @@
         <v>26.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.746</v>
+        <v>0.744</v>
       </c>
       <c r="R5" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S5" t="n">
         <v>29.5</v>
       </c>
       <c r="T5" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U5" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="V5" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W5" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X5" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA5" t="n">
         <v>21.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC5" t="n">
         <v>-8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
         <v>28</v>
       </c>
       <c r="AF5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG5" t="n">
         <v>28</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>28</v>
@@ -1320,7 +1387,7 @@
         <v>27</v>
       </c>
       <c r="AN5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO5" t="n">
         <v>2</v>
@@ -1344,10 +1411,10 @@
         <v>30</v>
       </c>
       <c r="AV5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX5" t="n">
         <v>5</v>
@@ -1356,13 +1423,13 @@
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA5" t="n">
         <v>4</v>
       </c>
       <c r="BB5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -1394,85 +1461,85 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" t="n">
         <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
       </c>
       <c r="I6" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J6" t="n">
-        <v>81.09999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M6" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="N6" t="n">
-        <v>0.359</v>
+        <v>0.354</v>
       </c>
       <c r="O6" t="n">
-        <v>18.1</v>
+        <v>18.4</v>
       </c>
       <c r="P6" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.783</v>
+        <v>0.784</v>
       </c>
       <c r="R6" t="n">
         <v>12.4</v>
       </c>
       <c r="S6" t="n">
-        <v>31.3</v>
+        <v>31.5</v>
       </c>
       <c r="T6" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="U6" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V6" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z6" t="n">
         <v>19.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
         <v>93.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
@@ -1487,22 +1554,22 @@
         <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
         <v>22</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM6" t="n">
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AO6" t="n">
         <v>8</v>
@@ -1511,7 +1578,7 @@
         <v>11</v>
       </c>
       <c r="AQ6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR6" t="n">
         <v>11</v>
@@ -1520,25 +1587,25 @@
         <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU6" t="n">
         <v>9</v>
       </c>
       <c r="AV6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AW6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AY6" t="n">
         <v>20</v>
       </c>
       <c r="AZ6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA6" t="n">
         <v>9</v>
@@ -1547,7 +1614,7 @@
         <v>25</v>
       </c>
       <c r="BC6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
@@ -1669,7 +1736,7 @@
         <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ7" t="n">
         <v>3</v>
@@ -1678,7 +1745,7 @@
         <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM7" t="n">
         <v>10</v>
@@ -1687,10 +1754,10 @@
         <v>18</v>
       </c>
       <c r="AO7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ7" t="n">
         <v>19</v>
@@ -1726,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -1836,13 +1903,13 @@
         <v>-2.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
       </c>
       <c r="AF8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
         <v>19</v>
@@ -1866,13 +1933,13 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO8" t="n">
         <v>11</v>
       </c>
-      <c r="AO8" t="n">
-        <v>10</v>
-      </c>
       <c r="AP8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1890,13 +1957,13 @@
         <v>13</v>
       </c>
       <c r="AV8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW8" t="n">
         <v>15</v>
       </c>
       <c r="AX8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
         <v>8</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>2.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF9" t="n">
         <v>11</v>
@@ -2033,7 +2100,7 @@
         <v>16</v>
       </c>
       <c r="AI9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ9" t="n">
         <v>2</v>
@@ -2069,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="AU9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV9" t="n">
         <v>26</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2215,13 +2282,13 @@
         <v>6</v>
       </c>
       <c r="AI10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
         <v>22</v>
@@ -2230,7 +2297,7 @@
         <v>26</v>
       </c>
       <c r="AN10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO10" t="n">
         <v>17</v>
@@ -2245,13 +2312,13 @@
         <v>9</v>
       </c>
       <c r="AS10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT10" t="n">
         <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV10" t="n">
         <v>24</v>
@@ -2263,7 +2330,7 @@
         <v>9</v>
       </c>
       <c r="AY10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
         <v>17</v>
@@ -2272,7 +2339,7 @@
         <v>8</v>
       </c>
       <c r="BB10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC10" t="n">
         <v>18</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" t="n">
         <v>15</v>
       </c>
       <c r="G11" t="n">
-        <v>0.625</v>
+        <v>0.615</v>
       </c>
       <c r="H11" t="n">
         <v>48.5</v>
@@ -2322,19 +2389,19 @@
         <v>37.9</v>
       </c>
       <c r="J11" t="n">
-        <v>82.8</v>
+        <v>83</v>
       </c>
       <c r="K11" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L11" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M11" t="n">
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>0.393</v>
+        <v>0.389</v>
       </c>
       <c r="O11" t="n">
         <v>17</v>
@@ -2343,25 +2410,25 @@
         <v>21.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.798</v>
+        <v>0.796</v>
       </c>
       <c r="R11" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S11" t="n">
         <v>34</v>
       </c>
       <c r="T11" t="n">
-        <v>44.9</v>
+        <v>45</v>
       </c>
       <c r="U11" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V11" t="n">
         <v>15.4</v>
       </c>
       <c r="W11" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X11" t="n">
         <v>3.9</v>
@@ -2373,19 +2440,19 @@
         <v>21.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
@@ -2397,13 +2464,13 @@
         <v>11</v>
       </c>
       <c r="AI11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2415,10 +2482,10 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -2436,7 +2503,7 @@
         <v>8</v>
       </c>
       <c r="AV11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW11" t="n">
         <v>26</v>
@@ -2451,13 +2518,13 @@
         <v>27</v>
       </c>
       <c r="BA11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB11" t="n">
         <v>9</v>
       </c>
       <c r="BC11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" t="n">
         <v>21</v>
       </c>
       <c r="G12" t="n">
-        <v>0.512</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.5</v>
+        <v>37.7</v>
       </c>
       <c r="J12" t="n">
-        <v>82.90000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L12" t="n">
         <v>10</v>
@@ -2516,61 +2583,61 @@
         <v>28.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O12" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="P12" t="n">
-        <v>25.8</v>
+        <v>25.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R12" t="n">
         <v>10.8</v>
       </c>
       <c r="S12" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T12" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U12" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V12" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="W12" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X12" t="n">
         <v>4</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z12" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="AA12" t="n">
         <v>19.7</v>
       </c>
-      <c r="AA12" t="n">
-        <v>19.8</v>
-      </c>
       <c r="AB12" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG12" t="n">
         <v>15</v>
@@ -2579,13 +2646,13 @@
         <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
@@ -2597,7 +2664,7 @@
         <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP12" t="n">
         <v>6</v>
@@ -2606,13 +2673,13 @@
         <v>15</v>
       </c>
       <c r="AR12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS12" t="n">
         <v>9</v>
       </c>
       <c r="AT12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU12" t="n">
         <v>11</v>
@@ -2627,19 +2694,19 @@
         <v>27</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB12" t="n">
         <v>2</v>
       </c>
       <c r="BC12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" t="n">
         <v>16</v>
       </c>
       <c r="G13" t="n">
-        <v>0.619</v>
+        <v>0.61</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2686,70 +2753,70 @@
         <v>34.3</v>
       </c>
       <c r="J13" t="n">
-        <v>81.09999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.423</v>
+        <v>0.422</v>
       </c>
       <c r="L13" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M13" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="N13" t="n">
-        <v>0.342</v>
+        <v>0.339</v>
       </c>
       <c r="O13" t="n">
-        <v>16</v>
+        <v>16.3</v>
       </c>
       <c r="P13" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.737</v>
+        <v>0.739</v>
       </c>
       <c r="R13" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S13" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="T13" t="n">
-        <v>46</v>
+        <v>46.3</v>
       </c>
       <c r="U13" t="n">
         <v>19.8</v>
       </c>
       <c r="V13" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W13" t="n">
         <v>6.7</v>
       </c>
       <c r="X13" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AB13" t="n">
-        <v>91.2</v>
+        <v>91.5</v>
       </c>
       <c r="AC13" t="n">
         <v>2.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF13" t="n">
         <v>8</v>
@@ -2758,7 +2825,7 @@
         <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
@@ -2770,19 +2837,19 @@
         <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
         <v>16</v>
       </c>
       <c r="AN13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ13" t="n">
         <v>23</v>
@@ -2800,7 +2867,7 @@
         <v>28</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW13" t="n">
         <v>27</v>
@@ -2812,16 +2879,16 @@
         <v>19</v>
       </c>
       <c r="AZ13" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA13" t="n">
         <v>10</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>11</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" t="n">
         <v>32</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>0.762</v>
+        <v>0.78</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2874,34 +2941,34 @@
         <v>0.474</v>
       </c>
       <c r="L14" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M14" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="N14" t="n">
         <v>0.353</v>
       </c>
       <c r="O14" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P14" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.712</v>
+        <v>0.715</v>
       </c>
       <c r="R14" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S14" t="n">
         <v>30.6</v>
       </c>
       <c r="T14" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U14" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="V14" t="n">
         <v>14.4</v>
@@ -2913,10 +2980,10 @@
         <v>6.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA14" t="n">
         <v>21.3</v>
@@ -2925,19 +2992,19 @@
         <v>101.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
         <v>30</v>
@@ -2946,7 +3013,7 @@
         <v>3</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
@@ -2958,28 +3025,28 @@
         <v>11</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ14" t="n">
         <v>26</v>
       </c>
       <c r="AR14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS14" t="n">
         <v>17</v>
       </c>
       <c r="AT14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV14" t="n">
         <v>9</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -3032,43 +3099,43 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" t="n">
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" t="n">
-        <v>0.415</v>
+        <v>0.425</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.1</v>
+        <v>37.3</v>
       </c>
       <c r="J15" t="n">
         <v>81.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L15" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="M15" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.353</v>
+        <v>0.356</v>
       </c>
       <c r="O15" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="P15" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="Q15" t="n">
         <v>0.694</v>
@@ -3080,10 +3147,10 @@
         <v>32.7</v>
       </c>
       <c r="T15" t="n">
-        <v>45.2</v>
+        <v>45.1</v>
       </c>
       <c r="U15" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="V15" t="n">
         <v>15.4</v>
@@ -3095,22 +3162,22 @@
         <v>5.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.6</v>
+        <v>103.1</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>19</v>
@@ -3125,13 +3192,13 @@
         <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL15" t="n">
         <v>3</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AO15" t="n">
         <v>3</v>
@@ -3161,31 +3228,31 @@
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX15" t="n">
         <v>10</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ15" t="n">
         <v>6</v>
       </c>
       <c r="BA15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB15" t="n">
         <v>5</v>
       </c>
       <c r="BC15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" t="n">
         <v>26</v>
       </c>
       <c r="F16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" t="n">
-        <v>0.65</v>
+        <v>0.667</v>
       </c>
       <c r="H16" t="n">
         <v>48.5</v>
@@ -3232,7 +3299,7 @@
         <v>35.7</v>
       </c>
       <c r="J16" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K16" t="n">
         <v>0.433</v>
@@ -3241,31 +3308,31 @@
         <v>4.7</v>
       </c>
       <c r="M16" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O16" t="n">
-        <v>16.8</v>
+        <v>17.1</v>
       </c>
       <c r="P16" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.792</v>
+        <v>0.79</v>
       </c>
       <c r="R16" t="n">
         <v>13.4</v>
       </c>
       <c r="S16" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="T16" t="n">
-        <v>42.7</v>
+        <v>42.9</v>
       </c>
       <c r="U16" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V16" t="n">
         <v>14.9</v>
@@ -3274,25 +3341,25 @@
         <v>9.199999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="AA16" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AB16" t="n">
-        <v>92.90000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3322,13 +3389,13 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AP16" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AQ16" t="n">
         <v>5</v>
@@ -3337,13 +3404,13 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AT16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV16" t="n">
         <v>18</v>
@@ -3358,13 +3425,13 @@
         <v>22</v>
       </c>
       <c r="AZ16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA16" t="n">
         <v>13</v>
       </c>
       <c r="BB16" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BC16" t="n">
         <v>6</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3507,7 +3574,7 @@
         <v>3</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
         <v>12</v>
@@ -3534,16 +3601,16 @@
         <v>8</v>
       </c>
       <c r="AX17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB17" t="n">
         <v>6</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -3656,10 +3723,10 @@
         <v>-0.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF18" t="n">
         <v>11</v>
@@ -3671,7 +3738,7 @@
         <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
@@ -3686,10 +3753,10 @@
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP18" t="n">
         <v>18</v>
@@ -3719,13 +3786,13 @@
         <v>1</v>
       </c>
       <c r="AY18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BB18" t="n">
         <v>15</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -3760,37 +3827,37 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" t="n">
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19" t="n">
-        <v>0.447</v>
+        <v>0.459</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="J19" t="n">
-        <v>81.7</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.429</v>
+        <v>0.428</v>
       </c>
       <c r="L19" t="n">
         <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="N19" t="n">
-        <v>0.294</v>
+        <v>0.293</v>
       </c>
       <c r="O19" t="n">
         <v>19.1</v>
@@ -3802,22 +3869,22 @@
         <v>0.739</v>
       </c>
       <c r="R19" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="S19" t="n">
-        <v>31</v>
+        <v>31.3</v>
       </c>
       <c r="T19" t="n">
-        <v>44.5</v>
+        <v>44.9</v>
       </c>
       <c r="U19" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V19" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W19" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X19" t="n">
         <v>5.3</v>
@@ -3826,7 +3893,7 @@
         <v>6</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="AA19" t="n">
         <v>23.1</v>
@@ -3835,16 +3902,16 @@
         <v>94.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-1.7</v>
+        <v>-1.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
         <v>18</v>
@@ -3856,7 +3923,7 @@
         <v>27</v>
       </c>
       <c r="AJ19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK19" t="n">
         <v>26</v>
@@ -3865,13 +3932,13 @@
         <v>27</v>
       </c>
       <c r="AM19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN19" t="n">
         <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP19" t="n">
         <v>5</v>
@@ -3883,13 +3950,13 @@
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT19" t="n">
         <v>5</v>
       </c>
       <c r="AU19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV19" t="n">
         <v>23</v>
@@ -3898,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="AX19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY19" t="n">
         <v>23</v>
@@ -3907,7 +3974,7 @@
         <v>2</v>
       </c>
       <c r="BA19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB19" t="n">
         <v>24</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -3942,58 +4009,58 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" t="n">
         <v>27</v>
       </c>
       <c r="G20" t="n">
-        <v>0.341</v>
+        <v>0.325</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="J20" t="n">
-        <v>80.2</v>
+        <v>80</v>
       </c>
       <c r="K20" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M20" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.371</v>
+        <v>0.367</v>
       </c>
       <c r="O20" t="n">
         <v>14.3</v>
       </c>
       <c r="P20" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="Q20" t="n">
         <v>0.772</v>
       </c>
       <c r="R20" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="S20" t="n">
         <v>30.2</v>
       </c>
       <c r="T20" t="n">
-        <v>41.8</v>
+        <v>41.6</v>
       </c>
       <c r="U20" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V20" t="n">
         <v>14.5</v>
@@ -4005,25 +4072,25 @@
         <v>5.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="AA20" t="n">
         <v>18.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>93.3</v>
+        <v>92.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.7</v>
+        <v>-4</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF20" t="n">
         <v>26</v>
@@ -4035,7 +4102,7 @@
         <v>14</v>
       </c>
       <c r="AI20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
@@ -4047,7 +4114,7 @@
         <v>15</v>
       </c>
       <c r="AM20" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AN20" t="n">
         <v>9</v>
@@ -4062,7 +4129,7 @@
         <v>9</v>
       </c>
       <c r="AR20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AS20" t="n">
         <v>21</v>
@@ -4074,25 +4141,25 @@
         <v>21</v>
       </c>
       <c r="AV20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW20" t="n">
         <v>28</v>
       </c>
       <c r="AX20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BC20" t="n">
         <v>24</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -4124,88 +4191,88 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" t="n">
         <v>25</v>
       </c>
       <c r="F21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" t="n">
-        <v>0.641</v>
+        <v>0.658</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J21" t="n">
         <v>83.40000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L21" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="M21" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.385</v>
+        <v>0.387</v>
       </c>
       <c r="O21" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P21" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.749</v>
+        <v>0.751</v>
       </c>
       <c r="R21" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S21" t="n">
         <v>29.7</v>
       </c>
       <c r="T21" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="U21" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V21" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="W21" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X21" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y21" t="n">
         <v>3.9</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>101.1</v>
+        <v>101.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AD21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF21" t="n">
         <v>5</v>
@@ -4217,13 +4284,13 @@
         <v>28</v>
       </c>
       <c r="AI21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="n">
         <v>7</v>
       </c>
       <c r="AK21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4238,22 +4305,22 @@
         <v>23</v>
       </c>
       <c r="AP21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ21" t="n">
         <v>17</v>
       </c>
       <c r="AR21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AS21" t="n">
         <v>23</v>
       </c>
       <c r="AT21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AU21" t="n">
         <v>26</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>27</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -4384,10 +4451,10 @@
         <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="n">
         <v>1</v>
@@ -4396,10 +4463,10 @@
         <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ22" t="n">
         <v>29</v>
@@ -4435,7 +4502,7 @@
         <v>10</v>
       </c>
       <c r="AU22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -4566,13 +4633,13 @@
         <v>-3.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
         <v>25</v>
       </c>
       <c r="AF23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG23" t="n">
         <v>25</v>
@@ -4581,13 +4648,13 @@
         <v>18</v>
       </c>
       <c r="AI23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL23" t="n">
         <v>16</v>
@@ -4605,7 +4672,7 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR23" t="n">
         <v>25</v>
@@ -4617,7 +4684,7 @@
         <v>13</v>
       </c>
       <c r="AU23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV23" t="n">
         <v>14</v>
@@ -4629,7 +4696,7 @@
         <v>25</v>
       </c>
       <c r="AY23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ23" t="n">
         <v>12</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -4670,22 +4737,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" t="n">
         <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G24" t="n">
-        <v>0.415</v>
+        <v>0.425</v>
       </c>
       <c r="H24" t="n">
         <v>48.4</v>
       </c>
       <c r="I24" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J24" t="n">
         <v>83.8</v>
@@ -4694,37 +4761,37 @@
         <v>0.442</v>
       </c>
       <c r="L24" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M24" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O24" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="P24" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.721</v>
+        <v>0.722</v>
       </c>
       <c r="R24" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S24" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T24" t="n">
         <v>41.1</v>
       </c>
       <c r="U24" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V24" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W24" t="n">
         <v>7.4</v>
@@ -4739,16 +4806,16 @@
         <v>18.9</v>
       </c>
       <c r="AA24" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>93</v>
+        <v>93.2</v>
       </c>
       <c r="AC24" t="n">
         <v>-4.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
@@ -4760,10 +4827,10 @@
         <v>20</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ24" t="n">
         <v>6</v>
@@ -4775,10 +4842,10 @@
         <v>21</v>
       </c>
       <c r="AM24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4793,13 +4860,13 @@
         <v>23</v>
       </c>
       <c r="AS24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT24" t="n">
         <v>23</v>
       </c>
       <c r="AU24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
@@ -4808,7 +4875,7 @@
         <v>21</v>
       </c>
       <c r="AX24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY24" t="n">
         <v>9</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>-4.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF25" t="n">
         <v>27</v>
@@ -4942,7 +5009,7 @@
         <v>27</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI25" t="n">
         <v>10</v>
@@ -4957,7 +5024,7 @@
         <v>25</v>
       </c>
       <c r="AM25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN25" t="n">
         <v>28</v>
@@ -4972,7 +5039,7 @@
         <v>21</v>
       </c>
       <c r="AR25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS25" t="n">
         <v>28</v>
@@ -4984,7 +5051,7 @@
         <v>17</v>
       </c>
       <c r="AV25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW25" t="n">
         <v>16</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" t="n">
         <v>20</v>
       </c>
       <c r="F26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>0.488</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>48.9</v>
@@ -5052,7 +5119,7 @@
         <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K26" t="n">
         <v>0.434</v>
@@ -5064,13 +5131,13 @@
         <v>24.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.337</v>
+        <v>0.338</v>
       </c>
       <c r="O26" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P26" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q26" t="n">
         <v>0.771</v>
@@ -5085,52 +5152,52 @@
         <v>42.2</v>
       </c>
       <c r="U26" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V26" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W26" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X26" t="n">
         <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA26" t="n">
         <v>19.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC26" t="n">
         <v>-2.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
       </c>
       <c r="AF26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI26" t="n">
         <v>20</v>
       </c>
       <c r="AJ26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK26" t="n">
         <v>23</v>
@@ -5142,13 +5209,13 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ26" t="n">
         <v>10</v>
@@ -5157,19 +5224,19 @@
         <v>13</v>
       </c>
       <c r="AS26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU26" t="n">
         <v>22</v>
       </c>
       <c r="AV26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX26" t="n">
         <v>19</v>
@@ -5184,7 +5251,7 @@
         <v>24</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC26" t="n">
         <v>21</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G27" t="n">
-        <v>0.381</v>
+        <v>0.39</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5237,76 +5304,76 @@
         <v>83.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L27" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M27" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.351</v>
+        <v>0.354</v>
       </c>
       <c r="O27" t="n">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="P27" t="n">
-        <v>22.4</v>
+        <v>22.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R27" t="n">
         <v>12</v>
       </c>
       <c r="S27" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="T27" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="U27" t="n">
         <v>19.9</v>
       </c>
       <c r="V27" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W27" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X27" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Z27" t="n">
         <v>21.3</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB27" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.8</v>
+        <v>-5.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG27" t="n">
         <v>22</v>
       </c>
       <c r="AH27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI27" t="n">
         <v>18</v>
@@ -5318,19 +5385,19 @@
         <v>21</v>
       </c>
       <c r="AL27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM27" t="n">
         <v>18</v>
       </c>
-      <c r="AM27" t="n">
-        <v>19</v>
-      </c>
       <c r="AN27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO27" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ27" t="n">
         <v>12</v>
@@ -5342,13 +5409,13 @@
         <v>29</v>
       </c>
       <c r="AT27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AW27" t="n">
         <v>14</v>
@@ -5363,10 +5430,10 @@
         <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BB27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -5398,55 +5465,55 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F28" t="n">
         <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>0.75</v>
+        <v>0.744</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="J28" t="n">
         <v>81.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.485</v>
+        <v>0.486</v>
       </c>
       <c r="L28" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0.382</v>
+        <v>0.386</v>
       </c>
       <c r="O28" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="P28" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.792</v>
+        <v>0.794</v>
       </c>
       <c r="R28" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="T28" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U28" t="n">
         <v>25.2</v>
@@ -5464,16 +5531,16 @@
         <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>104</v>
+        <v>104.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -5491,7 +5558,7 @@
         <v>10</v>
       </c>
       <c r="AI28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ28" t="n">
         <v>20</v>
@@ -5500,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM28" t="n">
         <v>6</v>
@@ -5509,7 +5576,7 @@
         <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP28" t="n">
         <v>24</v>
@@ -5539,13 +5606,13 @@
         <v>11</v>
       </c>
       <c r="AY28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>-1.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
       </c>
       <c r="AF29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG29" t="n">
         <v>24</v>
@@ -5688,19 +5755,19 @@
         <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ29" t="n">
         <v>11</v>
       </c>
       <c r="AR29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
@@ -5715,7 +5782,7 @@
         <v>3</v>
       </c>
       <c r="AW29" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AX29" t="n">
         <v>24</v>
@@ -5727,7 +5794,7 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
         <v>14</v>
@@ -5852,7 +5919,7 @@
         <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI30" t="n">
         <v>17</v>
@@ -5894,10 +5961,10 @@
         <v>7</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX30" t="n">
         <v>6</v>
@@ -5909,13 +5976,13 @@
         <v>29</v>
       </c>
       <c r="BA30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB30" t="n">
         <v>11</v>
       </c>
       <c r="BC30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" t="n">
         <v>30</v>
       </c>
       <c r="G31" t="n">
-        <v>0.231</v>
+        <v>0.211</v>
       </c>
       <c r="H31" t="n">
         <v>48.9</v>
       </c>
       <c r="I31" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="J31" t="n">
         <v>83.09999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.418</v>
+        <v>0.417</v>
       </c>
       <c r="L31" t="n">
         <v>6.6</v>
@@ -5974,13 +6041,13 @@
         <v>19.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.338</v>
+        <v>0.336</v>
       </c>
       <c r="O31" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="P31" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="Q31" t="n">
         <v>0.736</v>
@@ -5995,7 +6062,7 @@
         <v>43.7</v>
       </c>
       <c r="U31" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V31" t="n">
         <v>15.4</v>
@@ -6004,25 +6071,25 @@
         <v>7.5</v>
       </c>
       <c r="X31" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA31" t="n">
         <v>19.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>91</v>
+        <v>90.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>-5.8</v>
+        <v>-6</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
@@ -6040,19 +6107,19 @@
         <v>29</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
       </c>
       <c r="AL31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM31" t="n">
         <v>14</v>
       </c>
       <c r="AN31" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AO31" t="n">
         <v>25</v>
@@ -6070,28 +6137,28 @@
         <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU31" t="n">
         <v>20</v>
       </c>
       <c r="AV31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW31" t="n">
         <v>18</v>
       </c>
       <c r="AX31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ31" t="n">
         <v>22</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>30</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-21-2012-13</t>
+          <t>2013-01-21</t>
         </is>
       </c>
     </row>
